--- a/res/HDAnet_2HAM.xlsx
+++ b/res/HDAnet_2HAM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,16 +468,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3373199990399852</v>
+        <v>0.3596225898986941</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6036095722348885</v>
+        <v>0.5814752529266324</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4690234927510608</v>
+        <v>0.5656875687568756</v>
       </c>
       <c r="F2" t="n">
-        <v>26.73635745048523</v>
+        <v>92.77445530891418</v>
       </c>
     </row>
     <row r="3">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2164211833509502</v>
+        <v>0.2270166860939047</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7213364271117166</v>
+        <v>0.7036524087950348</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5164971774600929</v>
+        <v>0.6626421548404841</v>
       </c>
       <c r="F3" t="n">
-        <v>53.50875306129456</v>
+        <v>185.2824482917786</v>
       </c>
     </row>
     <row r="4">
@@ -508,16 +508,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1893092618001579</v>
+        <v>0.1946067633031175</v>
       </c>
       <c r="D4" t="n">
-        <v>0.753888166514903</v>
+        <v>0.7463213208951458</v>
       </c>
       <c r="E4" t="n">
-        <v>0.687651940417256</v>
+        <v>0.670701721213788</v>
       </c>
       <c r="F4" t="n">
-        <v>80.32142615318298</v>
+        <v>277.9932065010071</v>
       </c>
     </row>
     <row r="5">
@@ -528,16 +528,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1668605444704155</v>
+        <v>0.1733054694915013</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7819430373477729</v>
+        <v>0.7808537693006358</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8042640400838553</v>
+        <v>0.7946221236707004</v>
       </c>
       <c r="F5" t="n">
-        <v>107.1244471073151</v>
+        <v>370.6503341197968</v>
       </c>
     </row>
     <row r="6">
@@ -548,16 +548,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1534432828913593</v>
+        <v>0.1470603428029884</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8012384417748707</v>
+        <v>0.8137087653900494</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7302483377323702</v>
+        <v>0.8295133732123212</v>
       </c>
       <c r="F6" t="n">
-        <v>133.9259693622589</v>
+        <v>463.3111650943756</v>
       </c>
     </row>
     <row r="7">
@@ -568,16 +568,16 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1405518586856468</v>
+        <v>0.1434422848335079</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8182675999555136</v>
+        <v>0.8172983209708345</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7436544156647807</v>
+        <v>0.8001766478731206</v>
       </c>
       <c r="F7" t="n">
-        <v>160.6448750495911</v>
+        <v>555.9840910434723</v>
       </c>
     </row>
     <row r="8">
@@ -588,16 +588,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1309148249411778</v>
+        <v>0.1290955362430385</v>
       </c>
       <c r="D8" t="n">
-        <v>0.829771357410471</v>
+        <v>0.8363078861388636</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8544227290235401</v>
+        <v>0.8169274844151082</v>
       </c>
       <c r="F8" t="n">
-        <v>187.3571870326996</v>
+        <v>650.7262406349182</v>
       </c>
     </row>
     <row r="9">
@@ -608,16 +608,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1204626578076334</v>
+        <v>0.1165846885874746</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8456795567341377</v>
+        <v>0.8520446532192956</v>
       </c>
       <c r="E9" t="n">
-        <v>0.378894410486967</v>
+        <v>0.7091461541987532</v>
       </c>
       <c r="F9" t="n">
-        <v>214.1010932922363</v>
+        <v>743.6233875751495</v>
       </c>
     </row>
     <row r="10">
@@ -628,16 +628,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1137300036258853</v>
+        <v>0.1088739445164028</v>
       </c>
       <c r="D10" t="n">
-        <v>0.851730193099038</v>
+        <v>0.8608981418407509</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7659790014396848</v>
+        <v>0.6758337917125046</v>
       </c>
       <c r="F10" t="n">
-        <v>240.8170289993286</v>
+        <v>836.1873774528503</v>
       </c>
     </row>
     <row r="11">
@@ -648,16 +648,16 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.102742014528945</v>
+        <v>0.1009633688494685</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8664909871475839</v>
+        <v>0.8696972764658392</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8090028051752879</v>
+        <v>0.8198753208654199</v>
       </c>
       <c r="F11" t="n">
-        <v>267.5459430217743</v>
+        <v>928.8240652084351</v>
       </c>
     </row>
     <row r="12">
@@ -668,16 +668,16 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09593261774294383</v>
+        <v>0.09780417005112775</v>
       </c>
       <c r="D12" t="n">
-        <v>0.875193216336262</v>
+        <v>0.874460685992532</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8281141471130531</v>
+        <v>0.848076068023469</v>
       </c>
       <c r="F12" t="n">
-        <v>294.3432731628418</v>
+        <v>1021.754948377609</v>
       </c>
     </row>
     <row r="13">
@@ -688,16 +688,16 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09252112105042148</v>
+        <v>0.08976970840377443</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8791060915169883</v>
+        <v>0.8841479336966395</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8697957447211558</v>
+        <v>0.8218920173267327</v>
       </c>
       <c r="F13" t="n">
-        <v>321.1546761989594</v>
+        <v>1115.218007564545</v>
       </c>
     </row>
     <row r="14">
@@ -708,16 +708,16 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08561874142459693</v>
+        <v>0.08563590029442343</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8879365342441472</v>
+        <v>0.889247622111212</v>
       </c>
       <c r="E14" t="n">
-        <v>0.808828961658921</v>
+        <v>0.8206255729739641</v>
       </c>
       <c r="F14" t="n">
-        <v>347.9667549133301</v>
+        <v>1207.892029285431</v>
       </c>
     </row>
     <row r="15">
@@ -728,16 +728,16 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0809949526426253</v>
+        <v>0.08328573836130407</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8929895378621476</v>
+        <v>0.8916026150469271</v>
       </c>
       <c r="E15" t="n">
-        <v>0.855940159943928</v>
+        <v>0.8545795517051705</v>
       </c>
       <c r="F15" t="n">
-        <v>374.7525470256805</v>
+        <v>1301.33610367775</v>
       </c>
     </row>
     <row r="16">
@@ -748,16 +748,16 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07577935238787524</v>
+        <v>0.07473847261891378</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8992715125048657</v>
+        <v>0.9027645007064286</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8554608569913114</v>
+        <v>0.8728114113494683</v>
       </c>
       <c r="F16" t="n">
-        <v>401.5109884738922</v>
+        <v>1394.160473823547</v>
       </c>
     </row>
     <row r="17">
@@ -768,16 +768,16 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07236744301033279</v>
+        <v>0.07269071842409285</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9028694743820552</v>
+        <v>0.9040134599858715</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8643708798494646</v>
+        <v>0.8783674252841951</v>
       </c>
       <c r="F17" t="n">
-        <v>428.2937343120575</v>
+        <v>1486.990503072739</v>
       </c>
     </row>
     <row r="18">
@@ -788,16 +788,16 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06968085508418018</v>
+        <v>0.06883739812010316</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9060517333210533</v>
+        <v>0.9087314089464124</v>
       </c>
       <c r="E18" t="n">
-        <v>0.866585263437058</v>
+        <v>0.868050398789879</v>
       </c>
       <c r="F18" t="n">
-        <v>455.037624835968</v>
+        <v>1579.815689086914</v>
       </c>
     </row>
     <row r="19">
@@ -808,16 +808,16 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.06676163290924207</v>
+        <v>0.06549984586173897</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9098056041643496</v>
+        <v>0.9133958711777173</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8186737140710244</v>
+        <v>0.8818988930143015</v>
       </c>
       <c r="F19" t="n">
-        <v>481.777715921402</v>
+        <v>1672.916912794113</v>
       </c>
     </row>
     <row r="20">
@@ -828,16 +828,16 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0637344466243193</v>
+        <v>0.06389708638353633</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9132814889409442</v>
+        <v>0.9146880361287718</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8688914032506567</v>
+        <v>0.8720978295746241</v>
       </c>
       <c r="F20" t="n">
-        <v>508.5244812965393</v>
+        <v>1765.740465402603</v>
       </c>
     </row>
     <row r="21">
@@ -848,16 +848,16 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06097098917012644</v>
+        <v>0.06072091167077057</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9168034784588223</v>
+        <v>0.9188138781663134</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8659634916776117</v>
+        <v>0.8589653809130913</v>
       </c>
       <c r="F21" t="n">
-        <v>535.2733798027039</v>
+        <v>1858.519521713257</v>
       </c>
     </row>
     <row r="22">
@@ -868,16 +868,16 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.05784761361595071</v>
+        <v>0.0590958435707586</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9205341611695769</v>
+        <v>0.9206610940811384</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7861261034426147</v>
+        <v>0.8350865763659699</v>
       </c>
       <c r="F22" t="n">
-        <v>562.0714945793152</v>
+        <v>1951.24178814888</v>
       </c>
     </row>
     <row r="23">
@@ -888,16 +888,16 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.05532701877872041</v>
+        <v>0.05542947489981431</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9234981692779292</v>
+        <v>0.9245971938389344</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8592096414679733</v>
+        <v>0.8585750710487715</v>
       </c>
       <c r="F23" t="n">
-        <v>588.8585851192474</v>
+        <v>2044.039913654327</v>
       </c>
     </row>
     <row r="24">
@@ -908,16 +908,16 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0542608400456587</v>
+        <v>0.05432134326699644</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9244645224830396</v>
+        <v>0.9259876753456454</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8453976655637503</v>
+        <v>0.8628018426842684</v>
       </c>
       <c r="F24" t="n">
-        <v>615.633917093277</v>
+        <v>2136.909216880798</v>
       </c>
     </row>
     <row r="25">
@@ -928,16 +928,16 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0520701422191121</v>
+        <v>0.05044492746244009</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9271125311926541</v>
+        <v>0.9309116081340196</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8664696308597697</v>
+        <v>0.8807191969196919</v>
       </c>
       <c r="F25" t="n">
-        <v>642.4257161617279</v>
+        <v>2229.7966837883</v>
       </c>
     </row>
     <row r="26">
@@ -948,16 +948,16 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0.05066474784947221</v>
+        <v>0.0491542082472783</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9285468285151254</v>
+        <v>0.9323182523463518</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8655514766240655</v>
+        <v>0.8795961679501283</v>
       </c>
       <c r="F26" t="n">
-        <v>669.2108719348907</v>
+        <v>2322.631871938705</v>
       </c>
     </row>
     <row r="27">
@@ -968,16 +968,16 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.04785894048311405</v>
+        <v>0.048507983377584</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9317112211880665</v>
+        <v>0.9329523192299929</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8605417840093958</v>
+        <v>0.8820573203153649</v>
       </c>
       <c r="F27" t="n">
-        <v>696.011974811554</v>
+        <v>2415.48139166832</v>
       </c>
     </row>
     <row r="28">
@@ -988,16 +988,16 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.04724821192529611</v>
+        <v>0.05005405896041309</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9324959249708058</v>
+        <v>0.9310747962710667</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8696814934203879</v>
+        <v>0.887976370553722</v>
       </c>
       <c r="F28" t="n">
-        <v>722.7561750411987</v>
+        <v>2508.338416337967</v>
       </c>
     </row>
     <row r="29">
@@ -1008,16 +1008,16 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.04528714024159824</v>
+        <v>0.0455641537417508</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9347190532377802</v>
+        <v>0.936232102760117</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8807928764017984</v>
+        <v>0.8521068252658599</v>
       </c>
       <c r="F29" t="n">
-        <v>751.1830277442932</v>
+        <v>2601.168789386749</v>
       </c>
     </row>
     <row r="30">
@@ -1028,16 +1028,16 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.04511938215682552</v>
+        <v>0.04409634685321465</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9350580235500194</v>
+        <v>0.9377732049147239</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8709086589462518</v>
+        <v>0.8712744086908691</v>
       </c>
       <c r="F30" t="n">
-        <v>777.8682746887207</v>
+        <v>2693.984654426575</v>
       </c>
     </row>
     <row r="31">
@@ -1048,416 +1048,16 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.04402970506401088</v>
+        <v>0.04210658318665112</v>
       </c>
       <c r="D31" t="n">
-        <v>0.936080908010343</v>
+        <v>0.9401992664496922</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8719199506844817</v>
+        <v>0.8387346442977631</v>
       </c>
       <c r="F31" t="n">
-        <v>804.5536820888519</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>31</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.04287710848799843</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.9374230501550075</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.8543477454409982</v>
-      </c>
-      <c r="F32" t="n">
-        <v>831.2362844944</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>32</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.04147358104708409</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.9390607188038703</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.8594067693599717</v>
-      </c>
-      <c r="F33" t="n">
-        <v>857.9211750030518</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>33</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.04096362583481324</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.9395261105975088</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.873290374318044</v>
-      </c>
-      <c r="F34" t="n">
-        <v>884.617205619812</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>34</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.03982902805470641</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.940764096212395</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.863308678205193</v>
-      </c>
-      <c r="F35" t="n">
-        <v>911.3218936920166</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>35</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.03870182782817602</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.9422832718748262</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.8756959660411194</v>
-      </c>
-      <c r="F36" t="n">
-        <v>938.0267419815063</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>36</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.03818286506697657</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.9428419592462326</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.8740348823625985</v>
-      </c>
-      <c r="F37" t="n">
-        <v>964.7185678482056</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>37</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.0769346448559852</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.9020920474371629</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.85010545059608</v>
-      </c>
-      <c r="F38" t="n">
-        <v>991.3195612430573</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>38</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.04726783848019971</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.9321513612682811</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.8544120734618105</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1017.911567926407</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>39</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.04157970729981846</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.9387771936516432</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.8686723722595474</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1044.490403175354</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>40</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.03932871945628678</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.9414341626466664</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.8699297285436451</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1071.079380512238</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>41</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.03784167352424331</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.9432232872713118</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.8660627462618711</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1097.689632892609</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>42</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.036675706607282</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.9447493596382694</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.8639738615124267</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1124.293442487717</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>43</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.0359899636347872</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.945414321425096</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.8731260024121035</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1150.912291049957</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>44</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.03545821037864166</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.9460540858032587</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.8592950832870276</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1177.54354929924</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>45</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.03502712615991483</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.9465953413466885</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.8677346828273389</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1204.205825805664</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>46</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.03434775513914041</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.9473933497956403</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.8771725506415438</v>
-      </c>
-      <c r="F47" t="n">
-        <v>1230.815265893936</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>47</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.03403096298918087</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.9477215677653895</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.8659926958097596</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1257.418229818344</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>48</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.03315883233371807</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.9487667171773342</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.8706827215725399</v>
-      </c>
-      <c r="F49" t="n">
-        <v>1284.013464212418</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>49</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.03554265099585219</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.946411085295835</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.8447648435921399</v>
-      </c>
-      <c r="F50" t="n">
-        <v>1310.635493755341</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>50</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.03328171327750754</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.9485922359832898</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.8699905047105476</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1337.232083320618</v>
+        <v>2786.846284627914</v>
       </c>
     </row>
   </sheetData>
